--- a/HistaffWebApp/ReportTemplates/Attendance/Import/AT_IMPORT_REGISTER_CO_Error.xlsx
+++ b/HistaffWebApp/ReportTemplates/Attendance/Import/AT_IMPORT_REGISTER_CO_Error.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ViecLam\Tinh Van\SUN_GROUP\Sun_Group\Code\06.DEPLOYMENT\02.Sourcecode\01.SourceCode\HistaffWebApp\ReportTemplates\Attendance\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TNG\HistaffWebApp\ReportTemplates\Attendance\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>&amp;=DATA.STT</t>
   </si>
@@ -50,39 +50,18 @@
     <t>Chức danh</t>
   </si>
   <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
     <t>Cấp nhân sự</t>
   </si>
   <si>
     <t>Số phép còn lại</t>
   </si>
   <si>
-    <t>Nghỉ từ ngày</t>
-  </si>
-  <si>
-    <t>Nghỉ đến ngày</t>
-  </si>
-  <si>
     <t>Kiểu công</t>
   </si>
   <si>
     <t>Mã kiểu công</t>
   </si>
   <si>
-    <t>Buổi sáng</t>
-  </si>
-  <si>
-    <t>Mã kiểu công buổi sáng</t>
-  </si>
-  <si>
-    <t>Buổi chiều</t>
-  </si>
-  <si>
-    <t>Mã kiểu công buổi chiều</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
@@ -107,30 +86,12 @@
     <t>&amp;=DATA.BALANCE_NOW</t>
   </si>
   <si>
-    <t>&amp;=DATA.LEAVE_FROM</t>
-  </si>
-  <si>
-    <t>&amp;=DATA.LEAVE_TO</t>
-  </si>
-  <si>
     <t>&amp;=DATA.MANUAL_NAME</t>
   </si>
   <si>
     <t>&amp;=DATA.MANUAL_ID</t>
   </si>
   <si>
-    <t>&amp;=DATA.MORNING_NAME</t>
-  </si>
-  <si>
-    <t>&amp;=DATA.MORNING_ID</t>
-  </si>
-  <si>
-    <t>&amp;=DATA.AFTERNOON_NAME</t>
-  </si>
-  <si>
-    <t>&amp;=DATA.AFTERNOON_ID</t>
-  </si>
-  <si>
     <t>&amp;=DATA.ORG_PATH</t>
   </si>
   <si>
@@ -138,12 +99,27 @@
   </si>
   <si>
     <t>Dòng excel lỗi</t>
+  </si>
+  <si>
+    <t>Công ty</t>
+  </si>
+  <si>
+    <t>&amp;=DATA.LEAVE_DAY</t>
+  </si>
+  <si>
+    <t>Ngày nghỉ</t>
+  </si>
+  <si>
+    <t>Ca nghỉ</t>
+  </si>
+  <si>
+    <t>&amp;=DATA.STATUS_SHIFT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -641,208 +617,207 @@
     <col min="8" max="8" width="14.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="4" customWidth="1"/>
     <col min="10" max="10" width="15" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="4" customWidth="1"/>
-    <col min="12" max="257" width="9.140625" style="4"/>
-    <col min="258" max="258" width="6.5703125" style="4" customWidth="1"/>
-    <col min="259" max="259" width="25" style="4" customWidth="1"/>
-    <col min="260" max="513" width="9.140625" style="4"/>
-    <col min="514" max="514" width="6.5703125" style="4" customWidth="1"/>
-    <col min="515" max="515" width="25" style="4" customWidth="1"/>
-    <col min="516" max="769" width="9.140625" style="4"/>
-    <col min="770" max="770" width="6.5703125" style="4" customWidth="1"/>
-    <col min="771" max="771" width="25" style="4" customWidth="1"/>
-    <col min="772" max="1025" width="9.140625" style="4"/>
-    <col min="1026" max="1026" width="6.5703125" style="4" customWidth="1"/>
-    <col min="1027" max="1027" width="25" style="4" customWidth="1"/>
-    <col min="1028" max="1281" width="9.140625" style="4"/>
-    <col min="1282" max="1282" width="6.5703125" style="4" customWidth="1"/>
-    <col min="1283" max="1283" width="25" style="4" customWidth="1"/>
-    <col min="1284" max="1537" width="9.140625" style="4"/>
-    <col min="1538" max="1538" width="6.5703125" style="4" customWidth="1"/>
-    <col min="1539" max="1539" width="25" style="4" customWidth="1"/>
-    <col min="1540" max="1793" width="9.140625" style="4"/>
-    <col min="1794" max="1794" width="6.5703125" style="4" customWidth="1"/>
-    <col min="1795" max="1795" width="25" style="4" customWidth="1"/>
-    <col min="1796" max="2049" width="9.140625" style="4"/>
-    <col min="2050" max="2050" width="6.5703125" style="4" customWidth="1"/>
-    <col min="2051" max="2051" width="25" style="4" customWidth="1"/>
-    <col min="2052" max="2305" width="9.140625" style="4"/>
-    <col min="2306" max="2306" width="6.5703125" style="4" customWidth="1"/>
-    <col min="2307" max="2307" width="25" style="4" customWidth="1"/>
-    <col min="2308" max="2561" width="9.140625" style="4"/>
-    <col min="2562" max="2562" width="6.5703125" style="4" customWidth="1"/>
-    <col min="2563" max="2563" width="25" style="4" customWidth="1"/>
-    <col min="2564" max="2817" width="9.140625" style="4"/>
-    <col min="2818" max="2818" width="6.5703125" style="4" customWidth="1"/>
-    <col min="2819" max="2819" width="25" style="4" customWidth="1"/>
-    <col min="2820" max="3073" width="9.140625" style="4"/>
-    <col min="3074" max="3074" width="6.5703125" style="4" customWidth="1"/>
-    <col min="3075" max="3075" width="25" style="4" customWidth="1"/>
-    <col min="3076" max="3329" width="9.140625" style="4"/>
-    <col min="3330" max="3330" width="6.5703125" style="4" customWidth="1"/>
-    <col min="3331" max="3331" width="25" style="4" customWidth="1"/>
-    <col min="3332" max="3585" width="9.140625" style="4"/>
-    <col min="3586" max="3586" width="6.5703125" style="4" customWidth="1"/>
-    <col min="3587" max="3587" width="25" style="4" customWidth="1"/>
-    <col min="3588" max="3841" width="9.140625" style="4"/>
-    <col min="3842" max="3842" width="6.5703125" style="4" customWidth="1"/>
-    <col min="3843" max="3843" width="25" style="4" customWidth="1"/>
-    <col min="3844" max="4097" width="9.140625" style="4"/>
-    <col min="4098" max="4098" width="6.5703125" style="4" customWidth="1"/>
-    <col min="4099" max="4099" width="25" style="4" customWidth="1"/>
-    <col min="4100" max="4353" width="9.140625" style="4"/>
-    <col min="4354" max="4354" width="6.5703125" style="4" customWidth="1"/>
-    <col min="4355" max="4355" width="25" style="4" customWidth="1"/>
-    <col min="4356" max="4609" width="9.140625" style="4"/>
-    <col min="4610" max="4610" width="6.5703125" style="4" customWidth="1"/>
-    <col min="4611" max="4611" width="25" style="4" customWidth="1"/>
-    <col min="4612" max="4865" width="9.140625" style="4"/>
-    <col min="4866" max="4866" width="6.5703125" style="4" customWidth="1"/>
-    <col min="4867" max="4867" width="25" style="4" customWidth="1"/>
-    <col min="4868" max="5121" width="9.140625" style="4"/>
-    <col min="5122" max="5122" width="6.5703125" style="4" customWidth="1"/>
-    <col min="5123" max="5123" width="25" style="4" customWidth="1"/>
-    <col min="5124" max="5377" width="9.140625" style="4"/>
-    <col min="5378" max="5378" width="6.5703125" style="4" customWidth="1"/>
-    <col min="5379" max="5379" width="25" style="4" customWidth="1"/>
-    <col min="5380" max="5633" width="9.140625" style="4"/>
-    <col min="5634" max="5634" width="6.5703125" style="4" customWidth="1"/>
-    <col min="5635" max="5635" width="25" style="4" customWidth="1"/>
-    <col min="5636" max="5889" width="9.140625" style="4"/>
-    <col min="5890" max="5890" width="6.5703125" style="4" customWidth="1"/>
-    <col min="5891" max="5891" width="25" style="4" customWidth="1"/>
-    <col min="5892" max="6145" width="9.140625" style="4"/>
-    <col min="6146" max="6146" width="6.5703125" style="4" customWidth="1"/>
-    <col min="6147" max="6147" width="25" style="4" customWidth="1"/>
-    <col min="6148" max="6401" width="9.140625" style="4"/>
-    <col min="6402" max="6402" width="6.5703125" style="4" customWidth="1"/>
-    <col min="6403" max="6403" width="25" style="4" customWidth="1"/>
-    <col min="6404" max="6657" width="9.140625" style="4"/>
-    <col min="6658" max="6658" width="6.5703125" style="4" customWidth="1"/>
-    <col min="6659" max="6659" width="25" style="4" customWidth="1"/>
-    <col min="6660" max="6913" width="9.140625" style="4"/>
-    <col min="6914" max="6914" width="6.5703125" style="4" customWidth="1"/>
-    <col min="6915" max="6915" width="25" style="4" customWidth="1"/>
-    <col min="6916" max="7169" width="9.140625" style="4"/>
-    <col min="7170" max="7170" width="6.5703125" style="4" customWidth="1"/>
-    <col min="7171" max="7171" width="25" style="4" customWidth="1"/>
-    <col min="7172" max="7425" width="9.140625" style="4"/>
-    <col min="7426" max="7426" width="6.5703125" style="4" customWidth="1"/>
-    <col min="7427" max="7427" width="25" style="4" customWidth="1"/>
-    <col min="7428" max="7681" width="9.140625" style="4"/>
-    <col min="7682" max="7682" width="6.5703125" style="4" customWidth="1"/>
-    <col min="7683" max="7683" width="25" style="4" customWidth="1"/>
-    <col min="7684" max="7937" width="9.140625" style="4"/>
-    <col min="7938" max="7938" width="6.5703125" style="4" customWidth="1"/>
-    <col min="7939" max="7939" width="25" style="4" customWidth="1"/>
-    <col min="7940" max="8193" width="9.140625" style="4"/>
-    <col min="8194" max="8194" width="6.5703125" style="4" customWidth="1"/>
-    <col min="8195" max="8195" width="25" style="4" customWidth="1"/>
-    <col min="8196" max="8449" width="9.140625" style="4"/>
-    <col min="8450" max="8450" width="6.5703125" style="4" customWidth="1"/>
-    <col min="8451" max="8451" width="25" style="4" customWidth="1"/>
-    <col min="8452" max="8705" width="9.140625" style="4"/>
-    <col min="8706" max="8706" width="6.5703125" style="4" customWidth="1"/>
-    <col min="8707" max="8707" width="25" style="4" customWidth="1"/>
-    <col min="8708" max="8961" width="9.140625" style="4"/>
-    <col min="8962" max="8962" width="6.5703125" style="4" customWidth="1"/>
-    <col min="8963" max="8963" width="25" style="4" customWidth="1"/>
-    <col min="8964" max="9217" width="9.140625" style="4"/>
-    <col min="9218" max="9218" width="6.5703125" style="4" customWidth="1"/>
-    <col min="9219" max="9219" width="25" style="4" customWidth="1"/>
-    <col min="9220" max="9473" width="9.140625" style="4"/>
-    <col min="9474" max="9474" width="6.5703125" style="4" customWidth="1"/>
-    <col min="9475" max="9475" width="25" style="4" customWidth="1"/>
-    <col min="9476" max="9729" width="9.140625" style="4"/>
-    <col min="9730" max="9730" width="6.5703125" style="4" customWidth="1"/>
-    <col min="9731" max="9731" width="25" style="4" customWidth="1"/>
-    <col min="9732" max="9985" width="9.140625" style="4"/>
-    <col min="9986" max="9986" width="6.5703125" style="4" customWidth="1"/>
-    <col min="9987" max="9987" width="25" style="4" customWidth="1"/>
-    <col min="9988" max="10241" width="9.140625" style="4"/>
-    <col min="10242" max="10242" width="6.5703125" style="4" customWidth="1"/>
-    <col min="10243" max="10243" width="25" style="4" customWidth="1"/>
-    <col min="10244" max="10497" width="9.140625" style="4"/>
-    <col min="10498" max="10498" width="6.5703125" style="4" customWidth="1"/>
-    <col min="10499" max="10499" width="25" style="4" customWidth="1"/>
-    <col min="10500" max="10753" width="9.140625" style="4"/>
-    <col min="10754" max="10754" width="6.5703125" style="4" customWidth="1"/>
-    <col min="10755" max="10755" width="25" style="4" customWidth="1"/>
-    <col min="10756" max="11009" width="9.140625" style="4"/>
-    <col min="11010" max="11010" width="6.5703125" style="4" customWidth="1"/>
-    <col min="11011" max="11011" width="25" style="4" customWidth="1"/>
-    <col min="11012" max="11265" width="9.140625" style="4"/>
-    <col min="11266" max="11266" width="6.5703125" style="4" customWidth="1"/>
-    <col min="11267" max="11267" width="25" style="4" customWidth="1"/>
-    <col min="11268" max="11521" width="9.140625" style="4"/>
-    <col min="11522" max="11522" width="6.5703125" style="4" customWidth="1"/>
-    <col min="11523" max="11523" width="25" style="4" customWidth="1"/>
-    <col min="11524" max="11777" width="9.140625" style="4"/>
-    <col min="11778" max="11778" width="6.5703125" style="4" customWidth="1"/>
-    <col min="11779" max="11779" width="25" style="4" customWidth="1"/>
-    <col min="11780" max="12033" width="9.140625" style="4"/>
-    <col min="12034" max="12034" width="6.5703125" style="4" customWidth="1"/>
-    <col min="12035" max="12035" width="25" style="4" customWidth="1"/>
-    <col min="12036" max="12289" width="9.140625" style="4"/>
-    <col min="12290" max="12290" width="6.5703125" style="4" customWidth="1"/>
-    <col min="12291" max="12291" width="25" style="4" customWidth="1"/>
-    <col min="12292" max="12545" width="9.140625" style="4"/>
-    <col min="12546" max="12546" width="6.5703125" style="4" customWidth="1"/>
-    <col min="12547" max="12547" width="25" style="4" customWidth="1"/>
-    <col min="12548" max="12801" width="9.140625" style="4"/>
-    <col min="12802" max="12802" width="6.5703125" style="4" customWidth="1"/>
-    <col min="12803" max="12803" width="25" style="4" customWidth="1"/>
-    <col min="12804" max="13057" width="9.140625" style="4"/>
-    <col min="13058" max="13058" width="6.5703125" style="4" customWidth="1"/>
-    <col min="13059" max="13059" width="25" style="4" customWidth="1"/>
-    <col min="13060" max="13313" width="9.140625" style="4"/>
-    <col min="13314" max="13314" width="6.5703125" style="4" customWidth="1"/>
-    <col min="13315" max="13315" width="25" style="4" customWidth="1"/>
-    <col min="13316" max="13569" width="9.140625" style="4"/>
-    <col min="13570" max="13570" width="6.5703125" style="4" customWidth="1"/>
-    <col min="13571" max="13571" width="25" style="4" customWidth="1"/>
-    <col min="13572" max="13825" width="9.140625" style="4"/>
-    <col min="13826" max="13826" width="6.5703125" style="4" customWidth="1"/>
-    <col min="13827" max="13827" width="25" style="4" customWidth="1"/>
-    <col min="13828" max="14081" width="9.140625" style="4"/>
-    <col min="14082" max="14082" width="6.5703125" style="4" customWidth="1"/>
-    <col min="14083" max="14083" width="25" style="4" customWidth="1"/>
-    <col min="14084" max="14337" width="9.140625" style="4"/>
-    <col min="14338" max="14338" width="6.5703125" style="4" customWidth="1"/>
-    <col min="14339" max="14339" width="25" style="4" customWidth="1"/>
-    <col min="14340" max="14593" width="9.140625" style="4"/>
-    <col min="14594" max="14594" width="6.5703125" style="4" customWidth="1"/>
-    <col min="14595" max="14595" width="25" style="4" customWidth="1"/>
-    <col min="14596" max="14849" width="9.140625" style="4"/>
-    <col min="14850" max="14850" width="6.5703125" style="4" customWidth="1"/>
-    <col min="14851" max="14851" width="25" style="4" customWidth="1"/>
-    <col min="14852" max="15105" width="9.140625" style="4"/>
-    <col min="15106" max="15106" width="6.5703125" style="4" customWidth="1"/>
-    <col min="15107" max="15107" width="25" style="4" customWidth="1"/>
-    <col min="15108" max="15361" width="9.140625" style="4"/>
-    <col min="15362" max="15362" width="6.5703125" style="4" customWidth="1"/>
-    <col min="15363" max="15363" width="25" style="4" customWidth="1"/>
-    <col min="15364" max="15617" width="9.140625" style="4"/>
-    <col min="15618" max="15618" width="6.5703125" style="4" customWidth="1"/>
-    <col min="15619" max="15619" width="25" style="4" customWidth="1"/>
-    <col min="15620" max="15873" width="9.140625" style="4"/>
-    <col min="15874" max="15874" width="6.5703125" style="4" customWidth="1"/>
-    <col min="15875" max="15875" width="25" style="4" customWidth="1"/>
-    <col min="15876" max="16129" width="9.140625" style="4"/>
-    <col min="16130" max="16130" width="6.5703125" style="4" customWidth="1"/>
-    <col min="16131" max="16131" width="25" style="4" customWidth="1"/>
-    <col min="16132" max="16384" width="9.140625" style="4"/>
+    <col min="11" max="253" width="9.140625" style="4"/>
+    <col min="254" max="254" width="6.5703125" style="4" customWidth="1"/>
+    <col min="255" max="255" width="25" style="4" customWidth="1"/>
+    <col min="256" max="509" width="9.140625" style="4"/>
+    <col min="510" max="510" width="6.5703125" style="4" customWidth="1"/>
+    <col min="511" max="511" width="25" style="4" customWidth="1"/>
+    <col min="512" max="765" width="9.140625" style="4"/>
+    <col min="766" max="766" width="6.5703125" style="4" customWidth="1"/>
+    <col min="767" max="767" width="25" style="4" customWidth="1"/>
+    <col min="768" max="1021" width="9.140625" style="4"/>
+    <col min="1022" max="1022" width="6.5703125" style="4" customWidth="1"/>
+    <col min="1023" max="1023" width="25" style="4" customWidth="1"/>
+    <col min="1024" max="1277" width="9.140625" style="4"/>
+    <col min="1278" max="1278" width="6.5703125" style="4" customWidth="1"/>
+    <col min="1279" max="1279" width="25" style="4" customWidth="1"/>
+    <col min="1280" max="1533" width="9.140625" style="4"/>
+    <col min="1534" max="1534" width="6.5703125" style="4" customWidth="1"/>
+    <col min="1535" max="1535" width="25" style="4" customWidth="1"/>
+    <col min="1536" max="1789" width="9.140625" style="4"/>
+    <col min="1790" max="1790" width="6.5703125" style="4" customWidth="1"/>
+    <col min="1791" max="1791" width="25" style="4" customWidth="1"/>
+    <col min="1792" max="2045" width="9.140625" style="4"/>
+    <col min="2046" max="2046" width="6.5703125" style="4" customWidth="1"/>
+    <col min="2047" max="2047" width="25" style="4" customWidth="1"/>
+    <col min="2048" max="2301" width="9.140625" style="4"/>
+    <col min="2302" max="2302" width="6.5703125" style="4" customWidth="1"/>
+    <col min="2303" max="2303" width="25" style="4" customWidth="1"/>
+    <col min="2304" max="2557" width="9.140625" style="4"/>
+    <col min="2558" max="2558" width="6.5703125" style="4" customWidth="1"/>
+    <col min="2559" max="2559" width="25" style="4" customWidth="1"/>
+    <col min="2560" max="2813" width="9.140625" style="4"/>
+    <col min="2814" max="2814" width="6.5703125" style="4" customWidth="1"/>
+    <col min="2815" max="2815" width="25" style="4" customWidth="1"/>
+    <col min="2816" max="3069" width="9.140625" style="4"/>
+    <col min="3070" max="3070" width="6.5703125" style="4" customWidth="1"/>
+    <col min="3071" max="3071" width="25" style="4" customWidth="1"/>
+    <col min="3072" max="3325" width="9.140625" style="4"/>
+    <col min="3326" max="3326" width="6.5703125" style="4" customWidth="1"/>
+    <col min="3327" max="3327" width="25" style="4" customWidth="1"/>
+    <col min="3328" max="3581" width="9.140625" style="4"/>
+    <col min="3582" max="3582" width="6.5703125" style="4" customWidth="1"/>
+    <col min="3583" max="3583" width="25" style="4" customWidth="1"/>
+    <col min="3584" max="3837" width="9.140625" style="4"/>
+    <col min="3838" max="3838" width="6.5703125" style="4" customWidth="1"/>
+    <col min="3839" max="3839" width="25" style="4" customWidth="1"/>
+    <col min="3840" max="4093" width="9.140625" style="4"/>
+    <col min="4094" max="4094" width="6.5703125" style="4" customWidth="1"/>
+    <col min="4095" max="4095" width="25" style="4" customWidth="1"/>
+    <col min="4096" max="4349" width="9.140625" style="4"/>
+    <col min="4350" max="4350" width="6.5703125" style="4" customWidth="1"/>
+    <col min="4351" max="4351" width="25" style="4" customWidth="1"/>
+    <col min="4352" max="4605" width="9.140625" style="4"/>
+    <col min="4606" max="4606" width="6.5703125" style="4" customWidth="1"/>
+    <col min="4607" max="4607" width="25" style="4" customWidth="1"/>
+    <col min="4608" max="4861" width="9.140625" style="4"/>
+    <col min="4862" max="4862" width="6.5703125" style="4" customWidth="1"/>
+    <col min="4863" max="4863" width="25" style="4" customWidth="1"/>
+    <col min="4864" max="5117" width="9.140625" style="4"/>
+    <col min="5118" max="5118" width="6.5703125" style="4" customWidth="1"/>
+    <col min="5119" max="5119" width="25" style="4" customWidth="1"/>
+    <col min="5120" max="5373" width="9.140625" style="4"/>
+    <col min="5374" max="5374" width="6.5703125" style="4" customWidth="1"/>
+    <col min="5375" max="5375" width="25" style="4" customWidth="1"/>
+    <col min="5376" max="5629" width="9.140625" style="4"/>
+    <col min="5630" max="5630" width="6.5703125" style="4" customWidth="1"/>
+    <col min="5631" max="5631" width="25" style="4" customWidth="1"/>
+    <col min="5632" max="5885" width="9.140625" style="4"/>
+    <col min="5886" max="5886" width="6.5703125" style="4" customWidth="1"/>
+    <col min="5887" max="5887" width="25" style="4" customWidth="1"/>
+    <col min="5888" max="6141" width="9.140625" style="4"/>
+    <col min="6142" max="6142" width="6.5703125" style="4" customWidth="1"/>
+    <col min="6143" max="6143" width="25" style="4" customWidth="1"/>
+    <col min="6144" max="6397" width="9.140625" style="4"/>
+    <col min="6398" max="6398" width="6.5703125" style="4" customWidth="1"/>
+    <col min="6399" max="6399" width="25" style="4" customWidth="1"/>
+    <col min="6400" max="6653" width="9.140625" style="4"/>
+    <col min="6654" max="6654" width="6.5703125" style="4" customWidth="1"/>
+    <col min="6655" max="6655" width="25" style="4" customWidth="1"/>
+    <col min="6656" max="6909" width="9.140625" style="4"/>
+    <col min="6910" max="6910" width="6.5703125" style="4" customWidth="1"/>
+    <col min="6911" max="6911" width="25" style="4" customWidth="1"/>
+    <col min="6912" max="7165" width="9.140625" style="4"/>
+    <col min="7166" max="7166" width="6.5703125" style="4" customWidth="1"/>
+    <col min="7167" max="7167" width="25" style="4" customWidth="1"/>
+    <col min="7168" max="7421" width="9.140625" style="4"/>
+    <col min="7422" max="7422" width="6.5703125" style="4" customWidth="1"/>
+    <col min="7423" max="7423" width="25" style="4" customWidth="1"/>
+    <col min="7424" max="7677" width="9.140625" style="4"/>
+    <col min="7678" max="7678" width="6.5703125" style="4" customWidth="1"/>
+    <col min="7679" max="7679" width="25" style="4" customWidth="1"/>
+    <col min="7680" max="7933" width="9.140625" style="4"/>
+    <col min="7934" max="7934" width="6.5703125" style="4" customWidth="1"/>
+    <col min="7935" max="7935" width="25" style="4" customWidth="1"/>
+    <col min="7936" max="8189" width="9.140625" style="4"/>
+    <col min="8190" max="8190" width="6.5703125" style="4" customWidth="1"/>
+    <col min="8191" max="8191" width="25" style="4" customWidth="1"/>
+    <col min="8192" max="8445" width="9.140625" style="4"/>
+    <col min="8446" max="8446" width="6.5703125" style="4" customWidth="1"/>
+    <col min="8447" max="8447" width="25" style="4" customWidth="1"/>
+    <col min="8448" max="8701" width="9.140625" style="4"/>
+    <col min="8702" max="8702" width="6.5703125" style="4" customWidth="1"/>
+    <col min="8703" max="8703" width="25" style="4" customWidth="1"/>
+    <col min="8704" max="8957" width="9.140625" style="4"/>
+    <col min="8958" max="8958" width="6.5703125" style="4" customWidth="1"/>
+    <col min="8959" max="8959" width="25" style="4" customWidth="1"/>
+    <col min="8960" max="9213" width="9.140625" style="4"/>
+    <col min="9214" max="9214" width="6.5703125" style="4" customWidth="1"/>
+    <col min="9215" max="9215" width="25" style="4" customWidth="1"/>
+    <col min="9216" max="9469" width="9.140625" style="4"/>
+    <col min="9470" max="9470" width="6.5703125" style="4" customWidth="1"/>
+    <col min="9471" max="9471" width="25" style="4" customWidth="1"/>
+    <col min="9472" max="9725" width="9.140625" style="4"/>
+    <col min="9726" max="9726" width="6.5703125" style="4" customWidth="1"/>
+    <col min="9727" max="9727" width="25" style="4" customWidth="1"/>
+    <col min="9728" max="9981" width="9.140625" style="4"/>
+    <col min="9982" max="9982" width="6.5703125" style="4" customWidth="1"/>
+    <col min="9983" max="9983" width="25" style="4" customWidth="1"/>
+    <col min="9984" max="10237" width="9.140625" style="4"/>
+    <col min="10238" max="10238" width="6.5703125" style="4" customWidth="1"/>
+    <col min="10239" max="10239" width="25" style="4" customWidth="1"/>
+    <col min="10240" max="10493" width="9.140625" style="4"/>
+    <col min="10494" max="10494" width="6.5703125" style="4" customWidth="1"/>
+    <col min="10495" max="10495" width="25" style="4" customWidth="1"/>
+    <col min="10496" max="10749" width="9.140625" style="4"/>
+    <col min="10750" max="10750" width="6.5703125" style="4" customWidth="1"/>
+    <col min="10751" max="10751" width="25" style="4" customWidth="1"/>
+    <col min="10752" max="11005" width="9.140625" style="4"/>
+    <col min="11006" max="11006" width="6.5703125" style="4" customWidth="1"/>
+    <col min="11007" max="11007" width="25" style="4" customWidth="1"/>
+    <col min="11008" max="11261" width="9.140625" style="4"/>
+    <col min="11262" max="11262" width="6.5703125" style="4" customWidth="1"/>
+    <col min="11263" max="11263" width="25" style="4" customWidth="1"/>
+    <col min="11264" max="11517" width="9.140625" style="4"/>
+    <col min="11518" max="11518" width="6.5703125" style="4" customWidth="1"/>
+    <col min="11519" max="11519" width="25" style="4" customWidth="1"/>
+    <col min="11520" max="11773" width="9.140625" style="4"/>
+    <col min="11774" max="11774" width="6.5703125" style="4" customWidth="1"/>
+    <col min="11775" max="11775" width="25" style="4" customWidth="1"/>
+    <col min="11776" max="12029" width="9.140625" style="4"/>
+    <col min="12030" max="12030" width="6.5703125" style="4" customWidth="1"/>
+    <col min="12031" max="12031" width="25" style="4" customWidth="1"/>
+    <col min="12032" max="12285" width="9.140625" style="4"/>
+    <col min="12286" max="12286" width="6.5703125" style="4" customWidth="1"/>
+    <col min="12287" max="12287" width="25" style="4" customWidth="1"/>
+    <col min="12288" max="12541" width="9.140625" style="4"/>
+    <col min="12542" max="12542" width="6.5703125" style="4" customWidth="1"/>
+    <col min="12543" max="12543" width="25" style="4" customWidth="1"/>
+    <col min="12544" max="12797" width="9.140625" style="4"/>
+    <col min="12798" max="12798" width="6.5703125" style="4" customWidth="1"/>
+    <col min="12799" max="12799" width="25" style="4" customWidth="1"/>
+    <col min="12800" max="13053" width="9.140625" style="4"/>
+    <col min="13054" max="13054" width="6.5703125" style="4" customWidth="1"/>
+    <col min="13055" max="13055" width="25" style="4" customWidth="1"/>
+    <col min="13056" max="13309" width="9.140625" style="4"/>
+    <col min="13310" max="13310" width="6.5703125" style="4" customWidth="1"/>
+    <col min="13311" max="13311" width="25" style="4" customWidth="1"/>
+    <col min="13312" max="13565" width="9.140625" style="4"/>
+    <col min="13566" max="13566" width="6.5703125" style="4" customWidth="1"/>
+    <col min="13567" max="13567" width="25" style="4" customWidth="1"/>
+    <col min="13568" max="13821" width="9.140625" style="4"/>
+    <col min="13822" max="13822" width="6.5703125" style="4" customWidth="1"/>
+    <col min="13823" max="13823" width="25" style="4" customWidth="1"/>
+    <col min="13824" max="14077" width="9.140625" style="4"/>
+    <col min="14078" max="14078" width="6.5703125" style="4" customWidth="1"/>
+    <col min="14079" max="14079" width="25" style="4" customWidth="1"/>
+    <col min="14080" max="14333" width="9.140625" style="4"/>
+    <col min="14334" max="14334" width="6.5703125" style="4" customWidth="1"/>
+    <col min="14335" max="14335" width="25" style="4" customWidth="1"/>
+    <col min="14336" max="14589" width="9.140625" style="4"/>
+    <col min="14590" max="14590" width="6.5703125" style="4" customWidth="1"/>
+    <col min="14591" max="14591" width="25" style="4" customWidth="1"/>
+    <col min="14592" max="14845" width="9.140625" style="4"/>
+    <col min="14846" max="14846" width="6.5703125" style="4" customWidth="1"/>
+    <col min="14847" max="14847" width="25" style="4" customWidth="1"/>
+    <col min="14848" max="15101" width="9.140625" style="4"/>
+    <col min="15102" max="15102" width="6.5703125" style="4" customWidth="1"/>
+    <col min="15103" max="15103" width="25" style="4" customWidth="1"/>
+    <col min="15104" max="15357" width="9.140625" style="4"/>
+    <col min="15358" max="15358" width="6.5703125" style="4" customWidth="1"/>
+    <col min="15359" max="15359" width="25" style="4" customWidth="1"/>
+    <col min="15360" max="15613" width="9.140625" style="4"/>
+    <col min="15614" max="15614" width="6.5703125" style="4" customWidth="1"/>
+    <col min="15615" max="15615" width="25" style="4" customWidth="1"/>
+    <col min="15616" max="15869" width="9.140625" style="4"/>
+    <col min="15870" max="15870" width="6.5703125" style="4" customWidth="1"/>
+    <col min="15871" max="15871" width="25" style="4" customWidth="1"/>
+    <col min="15872" max="16125" width="9.140625" style="4"/>
+    <col min="16126" max="16126" width="6.5703125" style="4" customWidth="1"/>
+    <col min="16127" max="16127" width="25" style="4" customWidth="1"/>
+    <col min="16128" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -857,98 +832,74 @@
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="N4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
